--- a/Итоговый сайт/Project №5 task EGE/cond/Ответы/Ответы.xlsx
+++ b/Итоговый сайт/Project №5 task EGE/cond/Ответы/Ответы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\html-css-js\Proect\Итоговый сайт\Project №5 task EGE\Zadachi\Ответы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sublime Text\Files\Proect\Итоговый сайт\Project №5 task EGE\cond\Ответы\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>Ответ</t>
   </si>
@@ -35,9 +35,6 @@
     <t>Условие</t>
   </si>
   <si>
-    <t>Три бита четности</t>
-  </si>
-  <si>
     <t>min R &gt; x</t>
   </si>
   <si>
@@ -45,6 +42,12 @@
   </si>
   <si>
     <t>min N, for R &gt; x</t>
+  </si>
+  <si>
+    <t>Дубль + 2 бита чётности</t>
+  </si>
+  <si>
+    <t>3 бита четности</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -77,15 +80,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -93,6 +240,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -373,62 +545,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F85"/>
+  <dimension ref="A1:I85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11" style="4" customWidth="1"/>
+    <col min="1" max="1" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E2" s="7"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
       <c r="B3"/>
       <c r="C3" s="1"/>
-      <c r="D3" t="s">
+      <c r="D3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="G3" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="2"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>85</v>
       </c>
       <c r="C5" t="s">
@@ -443,9 +635,18 @@
       <c r="F5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="G5">
+        <v>92</v>
+      </c>
+      <c r="H5">
+        <v>80</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <f>A5+1</f>
         <v>86</v>
       </c>
@@ -458,9 +659,18 @@
       <c r="F6">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="G6">
+        <v>92</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <f t="shared" ref="A7:A70" si="0">A6+1</f>
         <v>87</v>
       </c>
@@ -473,9 +683,18 @@
       <c r="F7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G7">
+        <v>92</v>
+      </c>
+      <c r="H7">
+        <v>80</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
@@ -488,9 +707,18 @@
       <c r="F8">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G8">
+        <v>92</v>
+      </c>
+      <c r="H8">
+        <v>80</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
@@ -503,9 +731,18 @@
       <c r="F9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="G9">
+        <v>92</v>
+      </c>
+      <c r="H9">
+        <v>80</v>
+      </c>
+      <c r="I9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
@@ -518,9 +755,18 @@
       <c r="F10">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+      <c r="G10">
+        <v>92</v>
+      </c>
+      <c r="H10">
+        <v>80</v>
+      </c>
+      <c r="I10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
@@ -533,9 +779,18 @@
       <c r="F11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4">
+      <c r="G11">
+        <v>92</v>
+      </c>
+      <c r="H11">
+        <v>80</v>
+      </c>
+      <c r="I11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
@@ -548,9 +803,18 @@
       <c r="F12">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4">
+      <c r="G12">
+        <v>96</v>
+      </c>
+      <c r="H12">
+        <v>80</v>
+      </c>
+      <c r="I12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
@@ -563,9 +827,18 @@
       <c r="F13">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4">
+      <c r="G13">
+        <v>96</v>
+      </c>
+      <c r="H13">
+        <v>92</v>
+      </c>
+      <c r="I13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
@@ -578,9 +851,18 @@
       <c r="F14">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="G14">
+        <v>96</v>
+      </c>
+      <c r="H14">
+        <v>92</v>
+      </c>
+      <c r="I14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
@@ -593,9 +875,18 @@
       <c r="F15">
         <v>12</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="G15">
+        <v>96</v>
+      </c>
+      <c r="H15">
+        <v>92</v>
+      </c>
+      <c r="I15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
@@ -608,9 +899,18 @@
       <c r="F16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4">
+      <c r="G16">
+        <v>108</v>
+      </c>
+      <c r="H16">
+        <v>92</v>
+      </c>
+      <c r="I16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
@@ -623,9 +923,18 @@
       <c r="F17">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4">
+      <c r="G17">
+        <v>108</v>
+      </c>
+      <c r="H17">
+        <v>96</v>
+      </c>
+      <c r="I17">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
@@ -638,9 +947,18 @@
       <c r="F18">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+      <c r="G18">
+        <v>108</v>
+      </c>
+      <c r="H18">
+        <v>96</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
@@ -653,9 +971,18 @@
       <c r="F19">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4">
+      <c r="G19">
+        <v>108</v>
+      </c>
+      <c r="H19">
+        <v>96</v>
+      </c>
+      <c r="I19">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -668,9 +995,18 @@
       <c r="F20">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+      <c r="G20">
+        <v>108</v>
+      </c>
+      <c r="H20">
+        <v>96</v>
+      </c>
+      <c r="I20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
@@ -683,9 +1019,18 @@
       <c r="F21">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+      <c r="G21">
+        <v>108</v>
+      </c>
+      <c r="H21">
+        <v>96</v>
+      </c>
+      <c r="I21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
@@ -698,9 +1043,18 @@
       <c r="F22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+      <c r="G22">
+        <v>108</v>
+      </c>
+      <c r="H22">
+        <v>96</v>
+      </c>
+      <c r="I22">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
@@ -713,9 +1067,18 @@
       <c r="F23">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+      <c r="G23">
+        <v>108</v>
+      </c>
+      <c r="H23">
+        <v>96</v>
+      </c>
+      <c r="I23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
@@ -728,9 +1091,18 @@
       <c r="F24">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+      <c r="G24">
+        <v>108</v>
+      </c>
+      <c r="H24">
+        <v>96</v>
+      </c>
+      <c r="I24">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
@@ -743,9 +1115,18 @@
       <c r="F25">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4">
+      <c r="G25">
+        <v>108</v>
+      </c>
+      <c r="H25">
+        <v>96</v>
+      </c>
+      <c r="I25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
@@ -758,9 +1139,18 @@
       <c r="F26">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+      <c r="G26">
+        <v>108</v>
+      </c>
+      <c r="H26">
+        <v>96</v>
+      </c>
+      <c r="I26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
@@ -773,9 +1163,18 @@
       <c r="F27">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+      <c r="G27">
+        <v>108</v>
+      </c>
+      <c r="H27">
+        <v>96</v>
+      </c>
+      <c r="I27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
@@ -788,9 +1187,18 @@
       <c r="F28">
         <v>14</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4">
+      <c r="G28">
+        <v>114</v>
+      </c>
+      <c r="H28">
+        <v>96</v>
+      </c>
+      <c r="I28">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
@@ -803,9 +1211,18 @@
       <c r="F29">
         <v>14</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4">
+      <c r="G29">
+        <v>114</v>
+      </c>
+      <c r="H29">
+        <v>108</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
@@ -818,9 +1235,18 @@
       <c r="F30">
         <v>14</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="4">
+      <c r="G30">
+        <v>114</v>
+      </c>
+      <c r="H30">
+        <v>108</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
@@ -833,9 +1259,18 @@
       <c r="F31">
         <v>14</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4">
+      <c r="G31">
+        <v>114</v>
+      </c>
+      <c r="H31">
+        <v>108</v>
+      </c>
+      <c r="I31">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
@@ -848,9 +1283,18 @@
       <c r="F32">
         <v>14</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4">
+      <c r="G32">
+        <v>114</v>
+      </c>
+      <c r="H32">
+        <v>108</v>
+      </c>
+      <c r="I32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
@@ -863,9 +1307,18 @@
       <c r="F33">
         <v>14</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4">
+      <c r="G33">
+        <v>114</v>
+      </c>
+      <c r="H33">
+        <v>108</v>
+      </c>
+      <c r="I33">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
@@ -878,9 +1331,18 @@
       <c r="F34">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4">
+      <c r="G34">
+        <v>126</v>
+      </c>
+      <c r="H34">
+        <v>108</v>
+      </c>
+      <c r="I34">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
@@ -893,9 +1355,18 @@
       <c r="F35">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4">
+      <c r="G35">
+        <v>126</v>
+      </c>
+      <c r="H35">
+        <v>114</v>
+      </c>
+      <c r="I35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
@@ -908,9 +1379,18 @@
       <c r="F36">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4">
+      <c r="G36">
+        <v>126</v>
+      </c>
+      <c r="H36">
+        <v>114</v>
+      </c>
+      <c r="I36">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
@@ -923,9 +1403,18 @@
       <c r="F37">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4">
+      <c r="G37">
+        <v>126</v>
+      </c>
+      <c r="H37">
+        <v>114</v>
+      </c>
+      <c r="I37">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
@@ -938,9 +1427,18 @@
       <c r="F38">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4">
+      <c r="G38">
+        <v>126</v>
+      </c>
+      <c r="H38">
+        <v>114</v>
+      </c>
+      <c r="I38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
@@ -953,9 +1451,18 @@
       <c r="F39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
+      <c r="G39">
+        <v>126</v>
+      </c>
+      <c r="H39">
+        <v>114</v>
+      </c>
+      <c r="I39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
@@ -968,9 +1475,18 @@
       <c r="F40">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4">
+      <c r="G40">
+        <v>126</v>
+      </c>
+      <c r="H40">
+        <v>114</v>
+      </c>
+      <c r="I40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
@@ -983,9 +1499,18 @@
       <c r="F41">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="4">
+      <c r="G41">
+        <v>126</v>
+      </c>
+      <c r="H41">
+        <v>114</v>
+      </c>
+      <c r="I41">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
@@ -998,9 +1523,18 @@
       <c r="F42">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="4">
+      <c r="G42">
+        <v>126</v>
+      </c>
+      <c r="H42">
+        <v>114</v>
+      </c>
+      <c r="I42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
@@ -1013,9 +1547,18 @@
       <c r="F43">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
+      <c r="G43">
+        <v>126</v>
+      </c>
+      <c r="H43">
+        <v>114</v>
+      </c>
+      <c r="I43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
@@ -1028,9 +1571,18 @@
       <c r="F44">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="4">
+      <c r="G44">
+        <v>126</v>
+      </c>
+      <c r="H44">
+        <v>114</v>
+      </c>
+      <c r="I44">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
@@ -1043,9 +1595,18 @@
       <c r="F45">
         <v>16</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="4">
+      <c r="G45">
+        <v>126</v>
+      </c>
+      <c r="H45">
+        <v>114</v>
+      </c>
+      <c r="I45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
@@ -1058,9 +1619,18 @@
       <c r="F46">
         <v>16</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="4">
+      <c r="G46">
+        <v>130</v>
+      </c>
+      <c r="H46">
+        <v>114</v>
+      </c>
+      <c r="I46">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
@@ -1073,9 +1643,18 @@
       <c r="F47">
         <v>16</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="4">
+      <c r="G47">
+        <v>130</v>
+      </c>
+      <c r="H47">
+        <v>126</v>
+      </c>
+      <c r="I47">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
@@ -1088,9 +1667,18 @@
       <c r="F48">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4">
+      <c r="G48">
+        <v>130</v>
+      </c>
+      <c r="H48">
+        <v>126</v>
+      </c>
+      <c r="I48">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
@@ -1103,9 +1691,18 @@
       <c r="F49">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="4">
+      <c r="G49">
+        <v>130</v>
+      </c>
+      <c r="H49">
+        <v>126</v>
+      </c>
+      <c r="I49">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
@@ -1118,9 +1715,18 @@
       <c r="F50">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="4">
+      <c r="G50">
+        <v>142</v>
+      </c>
+      <c r="H50">
+        <v>126</v>
+      </c>
+      <c r="I50">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
@@ -1133,9 +1739,18 @@
       <c r="F51">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4">
+      <c r="G51">
+        <v>142</v>
+      </c>
+      <c r="H51">
+        <v>130</v>
+      </c>
+      <c r="I51">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
@@ -1148,9 +1763,18 @@
       <c r="F52">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="4">
+      <c r="G52">
+        <v>142</v>
+      </c>
+      <c r="H52">
+        <v>130</v>
+      </c>
+      <c r="I52">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
@@ -1163,9 +1787,18 @@
       <c r="F53">
         <v>17</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="4">
+      <c r="G53">
+        <v>142</v>
+      </c>
+      <c r="H53">
+        <v>130</v>
+      </c>
+      <c r="I53">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
@@ -1178,9 +1811,18 @@
       <c r="F54">
         <v>17</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4">
+      <c r="G54">
+        <v>142</v>
+      </c>
+      <c r="H54">
+        <v>130</v>
+      </c>
+      <c r="I54">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
@@ -1193,9 +1835,18 @@
       <c r="F55">
         <v>17</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="4">
+      <c r="G55">
+        <v>142</v>
+      </c>
+      <c r="H55">
+        <v>130</v>
+      </c>
+      <c r="I55">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
@@ -1208,9 +1859,18 @@
       <c r="F56">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="4">
+      <c r="G56">
+        <v>142</v>
+      </c>
+      <c r="H56">
+        <v>130</v>
+      </c>
+      <c r="I56">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
@@ -1223,9 +1883,18 @@
       <c r="F57">
         <v>18</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4">
+      <c r="G57">
+        <v>142</v>
+      </c>
+      <c r="H57">
+        <v>130</v>
+      </c>
+      <c r="I57">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
         <f>A57+1</f>
         <v>138</v>
       </c>
@@ -1238,9 +1907,18 @@
       <c r="F58">
         <v>18</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="4">
+      <c r="G58">
+        <v>142</v>
+      </c>
+      <c r="H58">
+        <v>130</v>
+      </c>
+      <c r="I58">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
@@ -1253,9 +1931,18 @@
       <c r="F59">
         <v>18</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4">
+      <c r="G59">
+        <v>142</v>
+      </c>
+      <c r="H59">
+        <v>130</v>
+      </c>
+      <c r="I59">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
@@ -1268,9 +1955,18 @@
       <c r="F60">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="4">
+      <c r="G60">
+        <v>142</v>
+      </c>
+      <c r="H60">
+        <v>130</v>
+      </c>
+      <c r="I60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
@@ -1283,9 +1979,18 @@
       <c r="F61">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
+      <c r="G61">
+        <v>142</v>
+      </c>
+      <c r="H61">
+        <v>130</v>
+      </c>
+      <c r="I61">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
@@ -1298,9 +2003,18 @@
       <c r="F62">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="4">
+      <c r="G62">
+        <v>144</v>
+      </c>
+      <c r="H62">
+        <v>130</v>
+      </c>
+      <c r="I62">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
@@ -1313,9 +2027,18 @@
       <c r="F63">
         <v>18</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="4">
+      <c r="G63">
+        <v>144</v>
+      </c>
+      <c r="H63">
+        <v>142</v>
+      </c>
+      <c r="I63">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
@@ -1328,9 +2051,18 @@
       <c r="F64">
         <v>19</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="4">
+      <c r="G64">
+        <v>156</v>
+      </c>
+      <c r="H64">
+        <v>142</v>
+      </c>
+      <c r="I64">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
@@ -1343,9 +2075,18 @@
       <c r="F65">
         <v>19</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="4">
+      <c r="G65">
+        <v>156</v>
+      </c>
+      <c r="H65">
+        <v>144</v>
+      </c>
+      <c r="I65">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
@@ -1358,9 +2099,18 @@
       <c r="F66">
         <v>19</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="4">
+      <c r="G66">
+        <v>156</v>
+      </c>
+      <c r="H66">
+        <v>144</v>
+      </c>
+      <c r="I66">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
@@ -1373,9 +2123,18 @@
       <c r="F67">
         <v>19</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="4">
+      <c r="G67">
+        <v>156</v>
+      </c>
+      <c r="H67">
+        <v>144</v>
+      </c>
+      <c r="I67">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
@@ -1388,9 +2147,18 @@
       <c r="F68">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="4">
+      <c r="G68">
+        <v>156</v>
+      </c>
+      <c r="H68">
+        <v>144</v>
+      </c>
+      <c r="I68">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
@@ -1403,9 +2171,18 @@
       <c r="F69">
         <v>19</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4">
+      <c r="G69">
+        <v>156</v>
+      </c>
+      <c r="H69">
+        <v>144</v>
+      </c>
+      <c r="I69">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
@@ -1418,9 +2195,18 @@
       <c r="F70">
         <v>19</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4">
+      <c r="G70">
+        <v>156</v>
+      </c>
+      <c r="H70">
+        <v>144</v>
+      </c>
+      <c r="I70">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
         <f t="shared" ref="A71:A75" si="1">A70+1</f>
         <v>151</v>
       </c>
@@ -1433,9 +2219,18 @@
       <c r="F71">
         <v>19</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
+      <c r="G71">
+        <v>156</v>
+      </c>
+      <c r="H71">
+        <v>144</v>
+      </c>
+      <c r="I71">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
         <f t="shared" si="1"/>
         <v>152</v>
       </c>
@@ -1448,9 +2243,18 @@
       <c r="F72">
         <v>19</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4">
+      <c r="G72">
+        <v>156</v>
+      </c>
+      <c r="H72">
+        <v>144</v>
+      </c>
+      <c r="I72">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
         <f t="shared" si="1"/>
         <v>153</v>
       </c>
@@ -1463,9 +2267,18 @@
       <c r="F73">
         <v>19</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4">
+      <c r="G73">
+        <v>156</v>
+      </c>
+      <c r="H73">
+        <v>144</v>
+      </c>
+      <c r="I73">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
         <f t="shared" si="1"/>
         <v>154</v>
       </c>
@@ -1478,9 +2291,18 @@
       <c r="F74">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="4">
+      <c r="G74">
+        <v>156</v>
+      </c>
+      <c r="H74">
+        <v>144</v>
+      </c>
+      <c r="I74">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
         <f t="shared" si="1"/>
         <v>155</v>
       </c>
@@ -1493,9 +2315,18 @@
       <c r="F75">
         <v>19</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4">
+      <c r="G75">
+        <v>156</v>
+      </c>
+      <c r="H75">
+        <v>144</v>
+      </c>
+      <c r="I75">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
         <f>A75+1</f>
         <v>156</v>
       </c>
@@ -1508,9 +2339,18 @@
       <c r="F76">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4">
+      <c r="G76">
+        <v>160</v>
+      </c>
+      <c r="H76">
+        <v>144</v>
+      </c>
+      <c r="I76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
         <f t="shared" ref="A77:A85" si="2">A76+1</f>
         <v>157</v>
       </c>
@@ -1523,9 +2363,18 @@
       <c r="F77">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4">
+      <c r="G77">
+        <v>160</v>
+      </c>
+      <c r="H77">
+        <v>156</v>
+      </c>
+      <c r="I77">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
         <f t="shared" si="2"/>
         <v>158</v>
       </c>
@@ -1538,9 +2387,18 @@
       <c r="F78">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
+      <c r="G78">
+        <v>160</v>
+      </c>
+      <c r="H78">
+        <v>156</v>
+      </c>
+      <c r="I78">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
         <f t="shared" si="2"/>
         <v>159</v>
       </c>
@@ -1553,9 +2411,18 @@
       <c r="F79">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4">
+      <c r="G79">
+        <v>160</v>
+      </c>
+      <c r="H79">
+        <v>156</v>
+      </c>
+      <c r="I79">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
@@ -1568,9 +2435,18 @@
       <c r="F80">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="4">
+      <c r="G80">
+        <v>172</v>
+      </c>
+      <c r="H80">
+        <v>156</v>
+      </c>
+      <c r="I80">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
         <f t="shared" si="2"/>
         <v>161</v>
       </c>
@@ -1583,9 +2459,18 @@
       <c r="F81">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="4">
+      <c r="G81">
+        <v>172</v>
+      </c>
+      <c r="H81">
+        <v>160</v>
+      </c>
+      <c r="I81">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
         <f t="shared" si="2"/>
         <v>162</v>
       </c>
@@ -1598,9 +2483,18 @@
       <c r="F82">
         <v>21</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="4">
+      <c r="G82">
+        <v>172</v>
+      </c>
+      <c r="H82">
+        <v>160</v>
+      </c>
+      <c r="I82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <f t="shared" si="2"/>
         <v>163</v>
       </c>
@@ -1613,9 +2507,18 @@
       <c r="F83">
         <v>21</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="4">
+      <c r="G83">
+        <v>172</v>
+      </c>
+      <c r="H83">
+        <v>160</v>
+      </c>
+      <c r="I83">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <f t="shared" si="2"/>
         <v>164</v>
       </c>
@@ -1628,9 +2531,18 @@
       <c r="F84">
         <v>21</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="4">
+      <c r="G84">
+        <v>172</v>
+      </c>
+      <c r="H84">
+        <v>160</v>
+      </c>
+      <c r="I84">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <f t="shared" si="2"/>
         <v>165</v>
       </c>
@@ -1643,12 +2555,24 @@
       <c r="F85">
         <v>21</v>
       </c>
+      <c r="G85">
+        <v>172</v>
+      </c>
+      <c r="H85">
+        <v>160</v>
+      </c>
+      <c r="I85">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G1:I1"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>